--- a/doc/ch5/專案組織.xlsx
+++ b/doc/ch5/專案組織.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="60" windowWidth="13540" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="人員簡介" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>姓名</t>
   </si>
@@ -28,9 +28,6 @@
     <t>學號</t>
   </si>
   <si>
-    <t>主要經歷</t>
-  </si>
-  <si>
     <t>郗昀彥</t>
   </si>
   <si>
@@ -124,16 +121,31 @@
     <t>主要職位</t>
   </si>
   <si>
-    <t>Team leader</t>
-  </si>
-  <si>
-    <t>RD leader</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>Doc</t>
+    <t>專案管理暨負責人</t>
+  </si>
+  <si>
+    <t>開發組長暨後端工程</t>
+  </si>
+  <si>
+    <t>系統分析</t>
+  </si>
+  <si>
+    <t>前端工程</t>
+  </si>
+  <si>
+    <t>文件統合與管理</t>
+  </si>
+  <si>
+    <t>視覺設計</t>
+  </si>
+  <si>
+    <t>伺服器管理</t>
+  </si>
+  <si>
+    <t>過往經驗</t>
+  </si>
+  <si>
+    <t>文件管理</t>
   </si>
 </sst>
 </file>
@@ -238,8 +250,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -294,15 +312,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -752,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -771,128 +791,130 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
@@ -912,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -924,124 +946,130 @@
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1049,32 +1077,36 @@
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>

--- a/doc/ch5/專案組織.xlsx
+++ b/doc/ch5/專案組織.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="60" windowWidth="13540" windowHeight="13360"/>
+    <workbookView xWindow="60" yWindow="60" windowWidth="13545" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="人員簡介" sheetId="1" r:id="rId1"/>
     <sheet name="任務職掌" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="4294967295" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>姓名</t>
   </si>
@@ -76,9 +76,6 @@
     <t>B00705027</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>施淮振</t>
   </si>
   <si>
@@ -146,13 +143,21 @@
   </si>
   <si>
     <t>文件管理</t>
+  </si>
+  <si>
+    <t>資料庫設計</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統美化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,6 +210,12 @@
       <name val="新細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -313,17 +324,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -690,11 +701,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -704,7 +715,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -734,11 +745,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -748,7 +759,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -769,21 +780,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="257" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="257" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,15 +802,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -817,7 +828,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -825,17 +836,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -843,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -853,7 +864,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -861,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -871,7 +882,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -879,47 +890,50 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78740149736404419" right="0.78740149736404419" top="0.78740149736404419" bottom="0.78740149736404419" header="0.39370083808898926" footer="0.39370083808898926"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -931,188 +945,189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="255" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="255" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="49.5">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78740149736404419" right="0.78740149736404419" top="0.78740149736404419" bottom="0.78740149736404419" header="0.39370083808898926" footer="0.39370083808898926"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
